--- a/AWL.xlsx
+++ b/AWL.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="135" windowWidth="11340" windowHeight="6285" activeTab="1"/>
+    <workbookView xWindow="12240" yWindow="135" windowWidth="11340" windowHeight="6285"/>
   </bookViews>
   <sheets>
-    <sheet name="Alphabetical list" sheetId="1" r:id="rId1"/>
-    <sheet name="Frequency" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -2206,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF570"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -6816,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
